--- a/Exams/Exam-02/Program_CheckList.xlsx
+++ b/Exams/Exam-02/Program_CheckList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C6ED87-18DF-4874-9A00-50AE4AA139EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052E2512-6811-4656-B3BA-FF12AC56DC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Creterio</t>
   </si>
@@ -50,46 +50,35 @@
     <t>Observaciones</t>
   </si>
   <si>
-    <t>Funciona y Cumple con el Objetivo</t>
-  </si>
-  <si>
     <t>NOTA</t>
   </si>
   <si>
-    <t>El codigo es limpio y entendible</t>
-  </si>
-  <si>
     <t>Compila sin Errores</t>
   </si>
   <si>
-    <t>No tiene Codigo Innecesario o duplicado</t>
-  </si>
-  <si>
-    <t>GetAll</t>
-  </si>
-  <si>
-    <t>GetById</t>
-  </si>
-  <si>
-    <t>Add</t>
-  </si>
-  <si>
-    <t>Update</t>
-  </si>
-  <si>
-    <t>Delete</t>
-  </si>
-  <si>
     <t>Cumple con Clean Architecture (Plural,Metodos CRUD, Manejoa los errores)</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Funciona y Cumple con el Objetivo (Tests = 78)</t>
+  </si>
+  <si>
+    <t>Tests</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -175,7 +164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -191,7 +180,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -206,12 +194,22 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -487,161 +485,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="85.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.109375" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="16">
+        <f>SUM(C4:C5)</f>
+        <v>78</v>
+      </c>
+      <c r="C3" s="10">
+        <v>4</v>
+      </c>
+      <c r="D3" s="13">
+        <f>(C5*C3)/78</f>
+        <v>4</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B4" s="2"/>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="15">
+        <v>78</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="9">
         <v>0.5</v>
       </c>
-      <c r="C2" s="13">
+      <c r="D6" s="12">
         <v>0.5</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11">
-        <v>1</v>
-      </c>
-      <c r="C3" s="14">
-        <f>SUM(B4:B8)</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="C11" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="14">
+        <f>SUM(D2:D6)</f>
         <v>5</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="15">
-        <f>SUM(C2:C11)</f>
-        <v>5</v>
-      </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>78</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Exams/Exam-02/Program_CheckList.xlsx
+++ b/Exams/Exam-02/Program_CheckList.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052E2512-6811-4656-B3BA-FF12AC56DC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA724E5E-51E4-4728-9319-4D075E061928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Creterio</t>
   </si>
@@ -69,6 +58,9 @@
   </si>
   <si>
     <t>Tests</t>
+  </si>
+  <si>
+    <t>Incorrecto Menejo de Errores</t>
   </si>
 </sst>
 </file>
@@ -488,7 +480,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,7 +535,7 @@
       </c>
       <c r="D3" s="13">
         <f>(C5*C3)/78</f>
-        <v>4</v>
+        <v>1.5897435897435896</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -553,7 +545,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="15">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="2"/>
@@ -564,7 +556,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="15">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="2"/>
@@ -578,9 +570,11 @@
         <v>0.5</v>
       </c>
       <c r="D6" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
@@ -590,7 +584,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="14">
         <f>SUM(D2:D6)</f>
-        <v>5</v>
+        <v>2.4897435897435893</v>
       </c>
       <c r="E7" s="7"/>
     </row>

--- a/Exams/Exam-02/Program_CheckList.xlsx
+++ b/Exams/Exam-02/Program_CheckList.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052E2512-6811-4656-B3BA-FF12AC56DC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10381F2C-2EBC-4C0C-B8B3-2E8F461107FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -56,9 +45,6 @@
     <t>Compila sin Errores</t>
   </si>
   <si>
-    <t>Cumple con Clean Architecture (Plural,Metodos CRUD, Manejoa los errores)</t>
-  </si>
-  <si>
     <t>Failed</t>
   </si>
   <si>
@@ -69,6 +55,9 @@
   </si>
   <si>
     <t>Tests</t>
+  </si>
+  <si>
+    <t>Cumple con Clean Architecture (Plural,Metodos CRUD, Manejo de los errores)</t>
   </si>
 </sst>
 </file>
@@ -488,7 +477,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,7 +494,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -532,7 +521,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="16">
         <f>SUM(C4:C5)</f>
@@ -549,7 +538,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="15">
@@ -560,7 +549,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="15">
@@ -571,7 +560,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="9">

--- a/Exams/Exam-02/Program_CheckList.xlsx
+++ b/Exams/Exam-02/Program_CheckList.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052E2512-6811-4656-B3BA-FF12AC56DC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30E2F27-7E76-4AC4-B915-43A10F12C7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Creterio</t>
   </si>
@@ -69,6 +58,9 @@
   </si>
   <si>
     <t>Tests</t>
+  </si>
+  <si>
+    <t>Error en Manejo de paquetes y referencias (43 E , 1 W)</t>
   </si>
 </sst>
 </file>
@@ -488,7 +480,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,9 +518,11 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -543,7 +537,7 @@
       </c>
       <c r="D3" s="13">
         <f>(C5*C3)/78</f>
-        <v>4</v>
+        <v>0.35897435897435898</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -553,7 +547,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="15">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="2"/>
@@ -564,7 +558,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="15">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="2"/>
@@ -590,7 +584,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="14">
         <f>SUM(D2:D6)</f>
-        <v>5</v>
+        <v>0.85897435897435903</v>
       </c>
       <c r="E7" s="7"/>
     </row>

--- a/Exams/Exam-02/Program_CheckList.xlsx
+++ b/Exams/Exam-02/Program_CheckList.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052E2512-6811-4656-B3BA-FF12AC56DC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DEDD1C-3BE8-4441-A416-69E25335E8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Creterio</t>
   </si>
@@ -69,6 +58,9 @@
   </si>
   <si>
     <t>Tests</t>
+  </si>
+  <si>
+    <t>Ok Sin Problemas</t>
   </si>
 </sst>
 </file>
@@ -488,7 +480,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,7 +584,9 @@
         <f>SUM(D2:D6)</f>
         <v>5</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>

--- a/Exams/Exam-02/Program_CheckList.xlsx
+++ b/Exams/Exam-02/Program_CheckList.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052E2512-6811-4656-B3BA-FF12AC56DC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243A6047-5DEC-4A21-9AF8-A9D3460AC9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Creterio</t>
   </si>
@@ -69,6 +58,12 @@
   </si>
   <si>
     <t>Tests</t>
+  </si>
+  <si>
+    <t>3 W</t>
+  </si>
+  <si>
+    <t>Bad Exception Implementation</t>
   </si>
 </sst>
 </file>
@@ -488,7 +483,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,9 +521,11 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -543,7 +540,7 @@
       </c>
       <c r="D3" s="13">
         <f>(C5*C3)/78</f>
-        <v>4</v>
+        <v>1.2820512820512822</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -553,7 +550,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="15">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="2"/>
@@ -564,7 +561,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="15">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="2"/>
@@ -578,9 +575,11 @@
         <v>0.5</v>
       </c>
       <c r="D6" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
@@ -590,7 +589,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="14">
         <f>SUM(D2:D6)</f>
-        <v>5</v>
+        <v>1.6820512820512823</v>
       </c>
       <c r="E7" s="7"/>
     </row>

--- a/Exams/Exam-02/Program_CheckList.xlsx
+++ b/Exams/Exam-02/Program_CheckList.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052E2512-6811-4656-B3BA-FF12AC56DC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1D5870-F4E0-4A6B-BCA2-FED8A85E62D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -543,7 +532,7 @@
       </c>
       <c r="D3" s="13">
         <f>(C5*C3)/78</f>
-        <v>4</v>
+        <v>0.25641025641025639</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -553,7 +542,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="15">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="2"/>
@@ -564,7 +553,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="15">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="2"/>
@@ -590,7 +579,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="14">
         <f>SUM(D2:D6)</f>
-        <v>5</v>
+        <v>1.2564102564102564</v>
       </c>
       <c r="E7" s="7"/>
     </row>

--- a/Exams/Exam-02/Program_CheckList.xlsx
+++ b/Exams/Exam-02/Program_CheckList.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052E2512-6811-4656-B3BA-FF12AC56DC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94F1139-A4EC-472D-AFB4-B306ED47E8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Creterio</t>
   </si>
@@ -69,6 +58,9 @@
   </si>
   <si>
     <t>Tests</t>
+  </si>
+  <si>
+    <t>1 W</t>
   </si>
 </sst>
 </file>
@@ -526,9 +518,11 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -543,7 +537,7 @@
       </c>
       <c r="D3" s="13">
         <f>(C5*C3)/78</f>
-        <v>4</v>
+        <v>2.5641025641025643</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -553,7 +547,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="15">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="2"/>
@@ -564,7 +558,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="15">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="2"/>
@@ -590,7 +584,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="14">
         <f>SUM(D2:D6)</f>
-        <v>5</v>
+        <v>3.0641025641025643</v>
       </c>
       <c r="E7" s="7"/>
     </row>

--- a/Exams/Exam-02/Program_CheckList.xlsx
+++ b/Exams/Exam-02/Program_CheckList.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052E2512-6811-4656-B3BA-FF12AC56DC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8745027B-B40B-4700-8162-BABA510D5E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Creterio</t>
   </si>
@@ -69,6 +58,9 @@
   </si>
   <si>
     <t>Tests</t>
+  </si>
+  <si>
+    <t>1 W</t>
   </si>
 </sst>
 </file>
@@ -526,9 +518,11 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -543,7 +537,7 @@
       </c>
       <c r="D3" s="13">
         <f>(C5*C3)/78</f>
-        <v>4</v>
+        <v>2.4102564102564101</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -553,7 +547,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="15">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="2"/>
@@ -564,7 +558,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="15">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="2"/>
@@ -590,7 +584,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="14">
         <f>SUM(D2:D6)</f>
-        <v>5</v>
+        <v>2.9102564102564101</v>
       </c>
       <c r="E7" s="7"/>
     </row>

--- a/Exams/Exam-02/Program_CheckList.xlsx
+++ b/Exams/Exam-02/Program_CheckList.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052E2512-6811-4656-B3BA-FF12AC56DC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7531243D-F371-4E11-AB98-AD2291A4D84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Creterio</t>
   </si>
@@ -69,6 +58,9 @@
   </si>
   <si>
     <t>Tests</t>
+  </si>
+  <si>
+    <t>Ok</t>
   </si>
 </sst>
 </file>
@@ -488,7 +480,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,7 +584,9 @@
         <f>SUM(D2:D6)</f>
         <v>5</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>

--- a/Exams/Exam-02/Program_CheckList.xlsx
+++ b/Exams/Exam-02/Program_CheckList.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052E2512-6811-4656-B3BA-FF12AC56DC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771EAC04-41C7-44ED-B0F5-3363A9CCCAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Creterio</t>
   </si>
@@ -69,6 +58,9 @@
   </si>
   <si>
     <t>Tests</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -488,7 +480,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,7 +584,9 @@
         <f>SUM(D2:D6)</f>
         <v>5</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>

--- a/Exams/Exam-02/Program_CheckList.xlsx
+++ b/Exams/Exam-02/Program_CheckList.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052E2512-6811-4656-B3BA-FF12AC56DC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF4C54A-7394-4260-A5CA-C5C9FC1AFA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Creterio</t>
   </si>
@@ -69,6 +58,9 @@
   </si>
   <si>
     <t>Tests</t>
+  </si>
+  <si>
+    <t>3 W</t>
   </si>
 </sst>
 </file>
@@ -526,9 +518,11 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -543,7 +537,7 @@
       </c>
       <c r="D3" s="13">
         <f>(C5*C3)/78</f>
-        <v>4</v>
+        <v>1.2820512820512822</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -553,7 +547,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="15">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="2"/>
@@ -564,7 +558,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="15">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="2"/>
@@ -590,7 +584,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="14">
         <f>SUM(D2:D6)</f>
-        <v>5</v>
+        <v>1.7820512820512822</v>
       </c>
       <c r="E7" s="7"/>
     </row>

--- a/Exams/Exam-02/Program_CheckList.xlsx
+++ b/Exams/Exam-02/Program_CheckList.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052E2512-6811-4656-B3BA-FF12AC56DC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC0CD08-9510-4394-BF8F-E154EFC06530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Creterio</t>
   </si>
@@ -69,6 +58,9 @@
   </si>
   <si>
     <t>Tests</t>
+  </si>
+  <si>
+    <t>4 W</t>
   </si>
 </sst>
 </file>
@@ -526,9 +518,11 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -543,7 +537,7 @@
       </c>
       <c r="D3" s="13">
         <f>(C5*C3)/78</f>
-        <v>4</v>
+        <v>3.7948717948717947</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -553,7 +547,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="2"/>
@@ -564,7 +558,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="15">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="2"/>
@@ -590,7 +584,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="14">
         <f>SUM(D2:D6)</f>
-        <v>5</v>
+        <v>4.2948717948717947</v>
       </c>
       <c r="E7" s="7"/>
     </row>

--- a/Exams/Exam-02/Program_CheckList.xlsx
+++ b/Exams/Exam-02/Program_CheckList.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052E2512-6811-4656-B3BA-FF12AC56DC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3351D0DA-C396-40A2-9CF9-EF9101522DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Creterio</t>
   </si>
@@ -69,6 +58,9 @@
   </si>
   <si>
     <t>Tests</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -488,7 +480,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,7 +584,9 @@
         <f>SUM(D2:D6)</f>
         <v>5</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>

--- a/Exams/Exam-02/Program_CheckList.xlsx
+++ b/Exams/Exam-02/Program_CheckList.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052E2512-6811-4656-B3BA-FF12AC56DC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E78320-A07C-4A58-81D6-D7C264B6B66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Creterio</t>
   </si>
@@ -69,6 +58,9 @@
   </si>
   <si>
     <t>Tests</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -487,9 +479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -592,7 +582,9 @@
         <f>SUM(D2:D6)</f>
         <v>5</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>

--- a/Exams/Exam-02/Program_CheckList.xlsx
+++ b/Exams/Exam-02/Program_CheckList.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052E2512-6811-4656-B3BA-FF12AC56DC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE43547-D08F-47E9-95C1-2A0781B44908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Creterio</t>
   </si>
@@ -69,6 +58,9 @@
   </si>
   <si>
     <t>Tests</t>
+  </si>
+  <si>
+    <t>No Compila</t>
   </si>
 </sst>
 </file>
@@ -488,7 +480,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,7 +584,9 @@
         <f>SUM(D2:D6)</f>
         <v>5</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>

--- a/Exams/Exam-02/Program_CheckList.xlsx
+++ b/Exams/Exam-02/Program_CheckList.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052E2512-6811-4656-B3BA-FF12AC56DC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FFFF26-5653-4D1B-BA80-66453CB70FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Creterio</t>
   </si>
@@ -69,6 +58,9 @@
   </si>
   <si>
     <t>Tests</t>
+  </si>
+  <si>
+    <t>Ok</t>
   </si>
 </sst>
 </file>
@@ -488,7 +480,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,7 +584,9 @@
         <f>SUM(D2:D6)</f>
         <v>5</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>

--- a/Exams/Exam-02/Program_CheckList.xlsx
+++ b/Exams/Exam-02/Program_CheckList.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10381F2C-2EBC-4C0C-B8B3-2E8F461107FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052E2512-6811-4656-B3BA-FF12AC56DC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -45,6 +56,9 @@
     <t>Compila sin Errores</t>
   </si>
   <si>
+    <t>Cumple con Clean Architecture (Plural,Metodos CRUD, Manejoa los errores)</t>
+  </si>
+  <si>
     <t>Failed</t>
   </si>
   <si>
@@ -55,9 +69,6 @@
   </si>
   <si>
     <t>Tests</t>
-  </si>
-  <si>
-    <t>Cumple con Clean Architecture (Plural,Metodos CRUD, Manejo de los errores)</t>
   </si>
 </sst>
 </file>
@@ -477,7 +488,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -521,7 +532,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="16">
         <f>SUM(C4:C5)</f>
@@ -538,7 +549,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="15">
@@ -549,7 +560,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="15">
@@ -560,7 +571,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="9">

--- a/Exams/Exam-02/Program_CheckList.xlsx
+++ b/Exams/Exam-02/Program_CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\ServicesDevelopment\Repository\Exams\Exam-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10381F2C-2EBC-4C0C-B8B3-2E8F461107FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7531243D-F371-4E11-AB98-AD2291A4D84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-4164" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Creterio</t>
   </si>
@@ -45,6 +45,9 @@
     <t>Compila sin Errores</t>
   </si>
   <si>
+    <t>Cumple con Clean Architecture (Plural,Metodos CRUD, Manejoa los errores)</t>
+  </si>
+  <si>
     <t>Failed</t>
   </si>
   <si>
@@ -57,7 +60,7 @@
     <t>Tests</t>
   </si>
   <si>
-    <t>Cumple con Clean Architecture (Plural,Metodos CRUD, Manejo de los errores)</t>
+    <t>Ok</t>
   </si>
 </sst>
 </file>
@@ -477,7 +480,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -521,7 +524,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="16">
         <f>SUM(C4:C5)</f>
@@ -538,7 +541,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="15">
@@ -549,7 +552,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="15">
@@ -560,7 +563,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="9">
@@ -581,7 +584,9 @@
         <f>SUM(D2:D6)</f>
         <v>5</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
